--- a/biology/Histoire de la zoologie et de la botanique/Société_philomathique_de_Paris/Société_philomathique_de_Paris.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_philomathique_de_Paris/Société_philomathique_de_Paris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_philomathique_de_Paris</t>
+          <t>Société_philomathique_de_Paris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société philomathique de Paris (SPP) est une société scientifique et philosophique pluridisciplinaire créée le 10 décembre 1788 sous l'impulsion de l'agronome Augustin-François de Silvestre et du minéralogiste Alexandre Brongniart. Composée d'un nombre limité de membres élus, elle prend pour devise « Étude et amitié ». Elle constitue une sorte d'antichambre avant d'accéder à l'Académie des sciences et se charge de la promotion des travaux de ses membres, notamment à travers la publication de son Bulletin mensuel.
 La fermeture de l'Académie des sciences par la Convention et le décret du 8 août 1793 feront de la Société philomathique de Paris la seule détentrice des publications scientifiques de l'époque jusqu'à la réouverture des académies, sous le nom d'Institut, le 3 brumaire an IV (novembre 1795), et la reprise de leurs publications. Les philomathes sont, en 1797, au nombre de 70 : l'association est alors contrainte de ne plus élire de membre que par voie de remplacement et de limiter ce nombre à 50. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_philomathique_de_Paris</t>
+          <t>Société_philomathique_de_Paris</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Liste des membres passés et présents de la Société philomathique de Paris</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Liste alphabétique (incomplète)</t>
         </is>
